--- a/Documentation/Client-Server-Communication-Protocol.xlsx
+++ b/Documentation/Client-Server-Communication-Protocol.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\UNI\NTNU\2_semester\eit\repos\VRChess-server\Documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5A35671-86C5-4104-90E1-9582E397BC3C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B405671-4D17-4DB1-A88B-19C6FFE5F722}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="11475" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="11475" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Server-Listen" sheetId="1" r:id="rId1"/>
@@ -123,9 +123,6 @@
     <t>When a client sends a create room request</t>
   </si>
   <si>
-    <t>{ "player_mode": "1 | 2", "opponent": "opponent_username" }</t>
-  </si>
-  <si>
     <t>{'status': 'success|error', 'message': 'Room created successfully', 'data': room.serialize()}</t>
   </si>
   <si>
@@ -304,6 +301,9 @@
   </si>
   <si>
     <t>CE1</t>
+  </si>
+  <si>
+    <t>{ "player_mode": "1 | 2", "opponent": "opponent_username", "side": "white|black" }</t>
   </si>
 </sst>
 </file>
@@ -637,8 +637,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -763,159 +763,159 @@
         <v>30</v>
       </c>
       <c r="D7" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="E7" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="E7" s="1" t="s">
+      <c r="F7" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="F7" s="1" t="s">
+      <c r="G7" s="1" t="s">
         <v>33</v>
-      </c>
-      <c r="G7" s="1" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="57" x14ac:dyDescent="0.45">
       <c r="A8" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B8" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="B8" s="1" t="s">
+      <c r="C8" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="C8" s="1" t="s">
+      <c r="D8" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="D8" s="1" t="s">
+      <c r="E8" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="E8" s="1" t="s">
+      <c r="F8" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="F8" s="1" t="s">
-        <v>40</v>
-      </c>
       <c r="G8" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A9" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B9" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="B9" s="1" t="s">
+      <c r="C9" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="C9" s="1" t="s">
+      <c r="E9" s="1" t="s">
         <v>43</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>44</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A10" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B10" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="B10" s="1" t="s">
+      <c r="C10" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="C10" s="1" t="s">
+      <c r="D10" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="E10" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="D10" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="E10" s="1" t="s">
+      <c r="F10" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="F10" s="1" t="s">
-        <v>49</v>
-      </c>
       <c r="G10" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="57" x14ac:dyDescent="0.45">
       <c r="A11" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B11" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="B11" s="1" t="s">
+      <c r="C11" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="C11" s="1" t="s">
+      <c r="D11" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="E11" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="D11" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="E11" s="1" t="s">
-        <v>53</v>
-      </c>
       <c r="F11" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="57" x14ac:dyDescent="0.45">
       <c r="A12" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B12" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="B12" s="1" t="s">
+      <c r="C12" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="C12" s="1" t="s">
+      <c r="D12" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="E12" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="D12" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="E12" s="1" t="s">
-        <v>57</v>
-      </c>
       <c r="G12" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="13" spans="1:7" ht="71.25" x14ac:dyDescent="0.45">
       <c r="A13" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B13" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="B13" s="1" t="s">
+      <c r="C13" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="C13" s="1" t="s">
+      <c r="D13" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="D13" s="1" t="s">
+      <c r="E13" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="E13" s="1" t="s">
+      <c r="F13" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="F13" s="1" t="s">
-        <v>63</v>
-      </c>
       <c r="G13" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="14" spans="1:7" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A14" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B14" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="B14" s="1" t="s">
+      <c r="C14" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="C14" s="1" t="s">
+      <c r="E14" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="E14" s="1" t="s">
-        <v>67</v>
-      </c>
       <c r="G14" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
   </sheetData>
@@ -928,7 +928,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{275484D1-206D-40FF-937B-526890656AEA}">
   <dimension ref="A1:E6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
@@ -953,95 +953,95 @@
         <v>2</v>
       </c>
       <c r="D1" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="E1" s="2" t="s">
         <v>70</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>71</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A2" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>69</v>
-      </c>
       <c r="C2" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="D2" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="D2" s="1" t="s">
-        <v>73</v>
-      </c>
       <c r="E2" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A3" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="C3" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="B3" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="C3" s="1" t="s">
+      <c r="D3" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="D3" s="1" t="s">
-        <v>77</v>
-      </c>
       <c r="E3" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="57" x14ac:dyDescent="0.45">
       <c r="A4" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="57" x14ac:dyDescent="0.45">
       <c r="A5" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A6" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="C6" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="B6" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="C6" s="1" t="s">
+      <c r="D6" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="D6" s="1" t="s">
-        <v>89</v>
-      </c>
       <c r="E6" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
   </sheetData>
@@ -1094,7 +1094,7 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A2" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
   </sheetData>
@@ -1131,15 +1131,15 @@
         <v>2</v>
       </c>
       <c r="D1" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="E1" s="2" t="s">
         <v>70</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>71</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A2" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
   </sheetData>

--- a/Documentation/Client-Server-Communication-Protocol.xlsx
+++ b/Documentation/Client-Server-Communication-Protocol.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\UNI\NTNU\2_semester\eit\repos\VRChess-server\Documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B405671-4D17-4DB1-A88B-19C6FFE5F722}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6246C57-DB3B-44CE-BD9D-2FE99FDD9138}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="11475" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="97">
   <si>
     <t>ID</t>
   </si>
@@ -304,6 +304,21 @@
   </si>
   <si>
     <t>{ "player_mode": "1 | 2", "opponent": "opponent_username", "side": "white|black" }</t>
+  </si>
+  <si>
+    <t>SL14</t>
+  </si>
+  <si>
+    <t>piece_move_notify</t>
+  </si>
+  <si>
+    <t>When the client wants to notify the server for new game fen (move). The server do not do move validation, just notifys the other room participants for the change.</t>
+  </si>
+  <si>
+    <t>{ "room_id": "xxx", "move": { "fen": "xxx" } }</t>
+  </si>
+  <si>
+    <t>{'status': 'success', 'message': 'Piece moved successfully', 'data': 'FEN_STRING'}</t>
   </si>
 </sst>
 </file>
@@ -635,10 +650,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G14"/>
+  <dimension ref="A1:G15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -915,6 +930,29 @@
         <v>66</v>
       </c>
       <c r="G14" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" ht="85.5" x14ac:dyDescent="0.45">
+      <c r="A15" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="G15" s="1" t="s">
         <v>33</v>
       </c>
     </row>
